--- a/output/ajuste2017.xlsx
+++ b/output/ajuste2017.xlsx
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-1560.156331200856</v>
+        <v>-1560.156331200843</v>
       </c>
       <c r="C3">
-        <v>5090.658363841659</v>
+        <v>5090.658363836415</v>
       </c>
       <c r="D3">
-        <v>398.5801982375155</v>
+        <v>398.5801982374671</v>
       </c>
       <c r="E3">
         <v>31</v>
       </c>
       <c r="F3">
-        <v>3182.312662401712</v>
+        <v>3182.312662401685</v>
       </c>
       <c r="G3">
-        <v>3299.70648122408</v>
+        <v>3299.706481224053</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1509.623188321033</v>
+        <v>-1509.623188321052</v>
       </c>
       <c r="C4">
-        <v>1601.071685472176</v>
+        <v>1601.071685469473</v>
       </c>
       <c r="D4">
-        <v>352.0749029813767</v>
+        <v>352.0749029812595</v>
       </c>
       <c r="E4">
         <v>47</v>
       </c>
       <c r="F4">
-        <v>3113.246376642066</v>
+        <v>3113.246376642103</v>
       </c>
       <c r="G4">
-        <v>3291.230553566301</v>
+        <v>3291.230553566339</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,22 +490,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-1486.279581417097</v>
+        <v>-1497.638595834378</v>
       </c>
       <c r="C5">
-        <v>1420.206923743552</v>
+        <v>2269.87698263957</v>
       </c>
       <c r="D5">
-        <v>330.7885220914552</v>
+        <v>349.3206471609823</v>
       </c>
       <c r="E5">
         <v>63</v>
       </c>
       <c r="F5">
-        <v>3098.559162834194</v>
+        <v>3121.277191668756</v>
       </c>
       <c r="G5">
-        <v>3337.133697860296</v>
+        <v>3359.851726694859</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -518,22 +518,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>-1468.356307043129</v>
+        <v>-1467.353277088631</v>
       </c>
       <c r="C6">
-        <v>1347.881790022033</v>
+        <v>1348.781708161708</v>
       </c>
       <c r="D6">
-        <v>312.4738912342275</v>
+        <v>309.9784430938314</v>
       </c>
       <c r="E6">
         <v>79</v>
       </c>
       <c r="F6">
-        <v>3094.712614086258</v>
+        <v>3092.706554177263</v>
       </c>
       <c r="G6">
-        <v>3393.877507214228</v>
+        <v>3391.871447305232</v>
       </c>
       <c r="H6">
         <v>0</v>

--- a/output/ajuste2017.xlsx
+++ b/output/ajuste2017.xlsx
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-1560.156331200843</v>
+        <v>-1612.00522112049</v>
       </c>
       <c r="C3">
-        <v>5090.658363836415</v>
+        <v>2170.172268506723</v>
       </c>
       <c r="D3">
-        <v>398.5801982374671</v>
+        <v>391.688904305751</v>
       </c>
       <c r="E3">
         <v>31</v>
       </c>
       <c r="F3">
-        <v>3182.312662401685</v>
+        <v>3286.010442240981</v>
       </c>
       <c r="G3">
-        <v>3299.706481224053</v>
+        <v>3403.404261063349</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1509.623188321052</v>
+        <v>-1509.62318832107</v>
       </c>
       <c r="C4">
-        <v>1601.071685469473</v>
+        <v>1601.071685470327</v>
       </c>
       <c r="D4">
-        <v>352.0749029812595</v>
+        <v>352.074902981345</v>
       </c>
       <c r="E4">
         <v>47</v>
       </c>
       <c r="F4">
-        <v>3113.246376642103</v>
+        <v>3113.24637664214</v>
       </c>
       <c r="G4">
-        <v>3291.230553566339</v>
+        <v>3291.230553566375</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,22 +490,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-1497.638595834378</v>
+        <v>-1488.340670983162</v>
       </c>
       <c r="C5">
-        <v>2269.87698263957</v>
+        <v>1610.440328579428</v>
       </c>
       <c r="D5">
-        <v>349.3206471609823</v>
+        <v>332.2852077516744</v>
       </c>
       <c r="E5">
         <v>63</v>
       </c>
       <c r="F5">
-        <v>3121.277191668756</v>
+        <v>3102.681341966325</v>
       </c>
       <c r="G5">
-        <v>3359.851726694859</v>
+        <v>3341.255876992427</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -518,22 +518,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>-1467.353277088631</v>
+        <v>-1467.353277087437</v>
       </c>
       <c r="C6">
-        <v>1348.781708161708</v>
+        <v>1348.781708156234</v>
       </c>
       <c r="D6">
-        <v>309.9784430938314</v>
+        <v>309.9784431028966</v>
       </c>
       <c r="E6">
         <v>79</v>
       </c>
       <c r="F6">
-        <v>3092.706554177263</v>
+        <v>3092.706554174873</v>
       </c>
       <c r="G6">
-        <v>3391.871447305232</v>
+        <v>3391.871447302843</v>
       </c>
       <c r="H6">
         <v>0</v>
